--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04456337681142167</v>
+        <v>0.04344787950197155</v>
       </c>
       <c r="H2" t="n">
-        <v>5.403950366211795</v>
+        <v>2.765509757537192</v>
       </c>
       <c r="I2" t="n">
-        <v>6.641068539645575</v>
+        <v>12.23157152217572</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06660631783347865</v>
+        <v>0.06655401847966168</v>
       </c>
       <c r="H3" t="n">
-        <v>36.76763908141768</v>
+        <v>36.66024898120357</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01104051789406742</v>
+        <v>0.002254855861345076</v>
       </c>
       <c r="H4" t="n">
-        <v>-679.8909435578153</v>
+        <v>18.43380044018446</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03186425633120452</v>
+        <v>0.01013806761129685</v>
       </c>
       <c r="H5" t="n">
-        <v>739.339064780718</v>
+        <v>167.0476944166587</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02286254935396969</v>
+        <v>0.03500858487396182</v>
       </c>
       <c r="H6" t="n">
-        <v>-34.05587921123846</v>
+        <v>0.9778180827108</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0290657267643606</v>
+        <v>0.0693301195796813</v>
       </c>
       <c r="H7" t="n">
-        <v>-45.35382122575115</v>
+        <v>30.34685627186169</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01453443161941823</v>
+        <v>-0.01599320471687386</v>
       </c>
       <c r="H8" t="n">
-        <v>-22.77453186516432</v>
+        <v>15.02366562537225</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04482689571495316</v>
+        <v>0.009920820453143374</v>
       </c>
       <c r="H9" t="n">
-        <v>108.226930049107</v>
+        <v>146.0835387679397</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05178769320645411</v>
+        <v>-0.02703691356061015</v>
       </c>
       <c r="H10" t="n">
-        <v>-28.7665374417948</v>
+        <v>62.81099136562563</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06231393740798615</v>
+        <v>-0.06522983704713034</v>
       </c>
       <c r="H11" t="n">
-        <v>-32.27558739503096</v>
+        <v>29.10651160732808</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2066935738070311</v>
+        <v>-0.2056719762074953</v>
       </c>
       <c r="H12" t="n">
-        <v>-15.44706607943692</v>
+        <v>15.86497493231495</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2484187383958334</v>
+        <v>-0.2774113310202931</v>
       </c>
       <c r="H13" t="n">
-        <v>-9.604517002664807</v>
+        <v>-0.9454094262223687</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06101023507964719</v>
+        <v>-0.05604359314843363</v>
       </c>
       <c r="H14" t="n">
-        <v>64.46051343917708</v>
+        <v>-51.07232568658776</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.007619928514638361</v>
+        <v>0.004089380227765119</v>
       </c>
       <c r="H15" t="n">
-        <v>-78.08561797192915</v>
+        <v>111.7607718231379</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1221922488187563</v>
+        <v>0.1160907157857339</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.486620143624691</v>
+        <v>-7.355841506739551</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1510568589880005</v>
+        <v>0.1487563148486218</v>
       </c>
       <c r="H17" t="n">
-        <v>7.705048099968008</v>
+        <v>6.064737167727823</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1109884619501624</v>
+        <v>0.1240214352290053</v>
       </c>
       <c r="H18" t="n">
-        <v>-11.01897049461142</v>
+        <v>-0.570250334957354</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1592228468518491</v>
+        <v>0.1441954999318305</v>
       </c>
       <c r="H19" t="n">
-        <v>19.52425019192822</v>
+        <v>8.243630554091713</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04257857819216027</v>
+        <v>0.0411701382858842</v>
       </c>
       <c r="H20" t="n">
-        <v>24.00523770932504</v>
+        <v>19.90331761728163</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05975303950996017</v>
+        <v>0.04720029833052352</v>
       </c>
       <c r="H21" t="n">
-        <v>2.951724589013429</v>
+        <v>-18.67606812816062</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08794237932929634</v>
+        <v>-0.08162493923817364</v>
       </c>
       <c r="H22" t="n">
-        <v>10.13725682145055</v>
+        <v>-2.225422651433719</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.06128050772391324</v>
+        <v>-0.09256758143142083</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.023978989041152</v>
+        <v>-47.99817495179491</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1259912037171486</v>
+        <v>0.1024948367245592</v>
       </c>
       <c r="H24" t="n">
-        <v>6.668692675463984</v>
+        <v>-13.22417822169135</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.152650313055309</v>
+        <v>0.1508310828205763</v>
       </c>
       <c r="H25" t="n">
-        <v>20.9874270252999</v>
+        <v>19.54554340998632</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05026551764205208</v>
+        <v>0.05440967085292964</v>
       </c>
       <c r="H26" t="n">
-        <v>1.129503091599585</v>
+        <v>9.46715034186661</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08790541044792304</v>
+        <v>0.07296129396765851</v>
       </c>
       <c r="H27" t="n">
-        <v>1.417730466216607</v>
+        <v>-15.82351065339667</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.04298112301172233</v>
+        <v>-0.07848184000852908</v>
       </c>
       <c r="H28" t="n">
-        <v>-32.4132805740131</v>
+        <v>-23.41069122937963</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.05891150037424521</v>
+        <v>-0.09581820175538164</v>
       </c>
       <c r="H29" t="n">
-        <v>-17.2268345104095</v>
+        <v>-34.6286517985291</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06782359869385911</v>
+        <v>0.06976294889404065</v>
       </c>
       <c r="H30" t="n">
-        <v>6.459885271862141</v>
+        <v>9.504002714600897</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05272618272911449</v>
+        <v>0.05752843184266525</v>
       </c>
       <c r="H31" t="n">
-        <v>-12.96503587387421</v>
+        <v>-5.037976532788671</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09464863777305008</v>
+        <v>0.09196394665685635</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.679218293171605</v>
+        <v>-6.411339462978738</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1075200461806171</v>
+        <v>0.1200931092194388</v>
       </c>
       <c r="H33" t="n">
-        <v>30.66832530534219</v>
+        <v>45.94827680835316</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.006521854504772982</v>
+        <v>-0.003441297669099602</v>
       </c>
       <c r="H34" t="n">
-        <v>-125.0308978956976</v>
+        <v>-113.2077111687932</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02716906810679822</v>
+        <v>0.02100440318482725</v>
       </c>
       <c r="H35" t="n">
-        <v>-342.3622141225281</v>
+        <v>287.370197689012</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0001114388366571161</v>
+        <v>-0.005268503932310815</v>
       </c>
       <c r="H36" t="n">
-        <v>-120.7055686387234</v>
+        <v>-1078.899036154643</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.009407333112590581</v>
+        <v>0.01675785528476442</v>
       </c>
       <c r="H37" t="n">
-        <v>-25.06663546957294</v>
+        <v>233.4833649210064</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1206677472151273</v>
+        <v>0.1164585412408932</v>
       </c>
       <c r="H38" t="n">
-        <v>12.5030966238993</v>
+        <v>8.578694972603808</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1043983195475395</v>
+        <v>0.09028487993872551</v>
       </c>
       <c r="H39" t="n">
-        <v>21.87126911920719</v>
+        <v>5.395689778294456</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0128729620409433</v>
+        <v>0.006005686031698925</v>
       </c>
       <c r="H40" t="n">
-        <v>333.3955208012945</v>
+        <v>102.1941350559972</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02761888289892826</v>
+        <v>0.0389189482726801</v>
       </c>
       <c r="H41" t="n">
-        <v>84.16583238644044</v>
+        <v>159.5159453216366</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09073685741460626</v>
+        <v>0.09170937333015954</v>
       </c>
       <c r="H42" t="n">
-        <v>-10.10378503830981</v>
+        <v>-9.140279112611211</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1230172076194376</v>
+        <v>0.1177527299362797</v>
       </c>
       <c r="H43" t="n">
-        <v>2.391041058388268</v>
+        <v>-1.990747156759112</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03179327335242392</v>
+        <v>0.0491444321719644</v>
       </c>
       <c r="H44" t="n">
-        <v>-10.91223599430321</v>
+        <v>37.70735485454964</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02956944353571305</v>
+        <v>0.03798432438238712</v>
       </c>
       <c r="H45" t="n">
-        <v>80.62998744246273</v>
+        <v>132.0337218356641</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03648477313349511</v>
+        <v>0.0391652284918749</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6795365706466914</v>
+        <v>8.076238813869098</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0432227905760281</v>
+        <v>0.04941760701476629</v>
       </c>
       <c r="H47" t="n">
-        <v>-14.30903723058024</v>
+        <v>-2.027558461143399</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04445058840578182</v>
+        <v>0.03303603845852768</v>
       </c>
       <c r="H48" t="n">
-        <v>3.901905959180004</v>
+        <v>-22.77925930142872</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06590854308204958</v>
+        <v>0.07215191025783929</v>
       </c>
       <c r="H49" t="n">
-        <v>-5.134942166391547</v>
+        <v>3.851410141084248</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.005642597899558128</v>
+        <v>0.0186388383901609</v>
       </c>
       <c r="H50" t="n">
-        <v>-67.33228863930432</v>
+        <v>7.909194216393119</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01773208502858676</v>
+        <v>0.0210880142485254</v>
       </c>
       <c r="H51" t="n">
-        <v>-8.92476531217938</v>
+        <v>8.31190148751654</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1128004844027144</v>
+        <v>-0.1204548549961306</v>
       </c>
       <c r="H52" t="n">
-        <v>8.964439881649813</v>
+        <v>-16.35850568530781</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09283234089065437</v>
+        <v>-0.08117965241862291</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5168454310097318</v>
+        <v>12.10043293083337</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07761505566050785</v>
+        <v>0.112619748182977</v>
       </c>
       <c r="H54" t="n">
-        <v>6.143642147030399</v>
+        <v>54.01483833380751</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08307070912194056</v>
+        <v>0.1083051751929798</v>
       </c>
       <c r="H55" t="n">
-        <v>34.08956708610916</v>
+        <v>74.82207878464079</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03670172192460804</v>
+        <v>0.03022152251758366</v>
       </c>
       <c r="H56" t="n">
-        <v>4.894385289842662</v>
+        <v>-13.62617717182404</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02096863907433822</v>
+        <v>0.01892788659133184</v>
       </c>
       <c r="H57" t="n">
-        <v>263.1865366546148</v>
+        <v>227.8397588382397</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04756932084130212</v>
+        <v>0.03071302817225358</v>
       </c>
       <c r="H58" t="n">
-        <v>90.19658714154114</v>
+        <v>22.80001134833809</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02590355015993738</v>
+        <v>0.02856241746078764</v>
       </c>
       <c r="H59" t="n">
-        <v>9.396340818495847</v>
+        <v>20.62531721899061</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04381956397138682</v>
+        <v>0.02877040246322089</v>
       </c>
       <c r="H60" t="n">
-        <v>35.06773697379298</v>
+        <v>-11.31921908054758</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02529847432710124</v>
+        <v>0.04603085265435178</v>
       </c>
       <c r="H61" t="n">
-        <v>99.86165253620103</v>
+        <v>263.6504778983349</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04690599226257532</v>
+        <v>0.06024207122676271</v>
       </c>
       <c r="H62" t="n">
-        <v>-22.29297885605859</v>
+        <v>-0.1997042005256153</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05670869660189165</v>
+        <v>0.04009162409106667</v>
       </c>
       <c r="H63" t="n">
-        <v>74.00913847301813</v>
+        <v>23.02009014677122</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02698938654276635</v>
+        <v>0.0193694719599505</v>
       </c>
       <c r="H64" t="n">
-        <v>-33.402590942241</v>
+        <v>-52.20504010694721</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05429065112219274</v>
+        <v>0.07039927039404606</v>
       </c>
       <c r="H65" t="n">
-        <v>-3.159488634009536</v>
+        <v>25.57413115948465</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.09986178478963544</v>
+        <v>0.09429735033204828</v>
       </c>
       <c r="H66" t="n">
-        <v>6.742280553364358</v>
+        <v>0.794455514549083</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1279436371262916</v>
+        <v>0.109912340553851</v>
       </c>
       <c r="H67" t="n">
-        <v>10.8248961774496</v>
+        <v>-4.793829501053792</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04033725177794027</v>
+        <v>-0.03134772754013255</v>
       </c>
       <c r="H68" t="n">
-        <v>15.7437385572614</v>
+        <v>10.05080859887387</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01434018604594802</v>
+        <v>-0.008265007496269555</v>
       </c>
       <c r="H69" t="n">
-        <v>-167.5727333348058</v>
+        <v>61.05426067931656</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.09501363154621853</v>
+        <v>0.09381686540574508</v>
       </c>
       <c r="H70" t="n">
-        <v>2.566353219980799</v>
+        <v>1.274455029290089</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1117633846113839</v>
+        <v>0.09944053079157736</v>
       </c>
       <c r="H71" t="n">
-        <v>22.53575219482527</v>
+        <v>9.025154182360758</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05505653789456164</v>
+        <v>-0.05984021422066699</v>
       </c>
       <c r="H72" t="n">
-        <v>-1.826800108942129</v>
+        <v>-6.703137118063389</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.05026992496350732</v>
+        <v>-0.05465935651818908</v>
       </c>
       <c r="H73" t="n">
-        <v>-31.84902394267456</v>
+        <v>25.89826819745424</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1121401329754387</v>
+        <v>0.1000923556165869</v>
       </c>
       <c r="H74" t="n">
-        <v>12.19981565328242</v>
+        <v>0.1456262847801648</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1066821945310988</v>
+        <v>0.1201405669038937</v>
       </c>
       <c r="H75" t="n">
-        <v>9.525450371638289</v>
+        <v>23.34251049004335</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01707508907016817</v>
+        <v>0.01164495108233995</v>
       </c>
       <c r="H76" t="n">
-        <v>-33.22374068927193</v>
+        <v>-54.45960662696459</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01473964262228486</v>
+        <v>0.005882099509934176</v>
       </c>
       <c r="H77" t="n">
-        <v>4.469492378232074</v>
+        <v>-58.30971172991612</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06678153562497649</v>
+        <v>0.05773797745381913</v>
       </c>
       <c r="H78" t="n">
-        <v>3.89652322113382</v>
+        <v>-10.1731480246396</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08016743340138402</v>
+        <v>0.07054468906241479</v>
       </c>
       <c r="H79" t="n">
-        <v>4.501840385210315</v>
+        <v>-8.041837893022901</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1716680606513799</v>
+        <v>-0.1659429824125236</v>
       </c>
       <c r="H80" t="n">
-        <v>3.659028306434679</v>
+        <v>-0.2020308605129298</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1356686269451261</v>
+        <v>-0.1787762596983573</v>
       </c>
       <c r="H81" t="n">
-        <v>-35.42418674987483</v>
+        <v>14.90573303652248</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1533175774012875</v>
+        <v>0.1266096833437853</v>
       </c>
       <c r="H82" t="n">
-        <v>33.67377734456568</v>
+        <v>10.38782967895368</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1781329376109594</v>
+        <v>0.2018448060136552</v>
       </c>
       <c r="H83" t="n">
-        <v>0.08468548743947849</v>
+        <v>13.40729119546635</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.09023937243111797</v>
+        <v>0.04477825283116746</v>
       </c>
       <c r="H84" t="n">
-        <v>278.5581886195661</v>
+        <v>87.8467660472149</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05163268687422418</v>
+        <v>0.0533870805692313</v>
       </c>
       <c r="H85" t="n">
-        <v>-16.14795210404134</v>
+        <v>-13.29879756555182</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04344787950197155</v>
+        <v>0.04450869273252551</v>
       </c>
       <c r="H2" t="n">
-        <v>2.765509757537192</v>
+        <v>5.274608329090507</v>
       </c>
       <c r="I2" t="n">
-        <v>12.23157152217572</v>
+        <v>23.52596972994051</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06655401847966168</v>
+        <v>0.07439599973514201</v>
       </c>
       <c r="H3" t="n">
-        <v>36.66024898120357</v>
+        <v>52.76276443197791</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002254855861345076</v>
+        <v>-0.01173324638103145</v>
       </c>
       <c r="H4" t="n">
-        <v>18.43380044018446</v>
+        <v>-716.2757381652136</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01013806761129685</v>
+        <v>0.008626083954053733</v>
       </c>
       <c r="H5" t="n">
-        <v>167.0476944166587</v>
+        <v>127.2204053174501</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03500858487396182</v>
+        <v>0.02740633020401429</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9778180827108</v>
+        <v>-20.94992026615799</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0693301195796813</v>
+        <v>0.05354401529554811</v>
       </c>
       <c r="H7" t="n">
-        <v>30.34685627186169</v>
+        <v>0.6675613464917063</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01599320471687386</v>
+        <v>0.005046070831298531</v>
       </c>
       <c r="H8" t="n">
-        <v>15.02366562537225</v>
+        <v>126.8111744850031</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009920820453143374</v>
+        <v>-0.0252491864677134</v>
       </c>
       <c r="H9" t="n">
-        <v>146.0835387679397</v>
+        <v>-17.28585039306263</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02703691356061015</v>
+        <v>-0.0604078553441143</v>
       </c>
       <c r="H10" t="n">
-        <v>62.81099136562563</v>
+        <v>16.90958921993137</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06522983704713034</v>
+        <v>-0.06430173820599172</v>
       </c>
       <c r="H11" t="n">
-        <v>29.10651160732808</v>
+        <v>30.11519363690258</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2056719762074953</v>
+        <v>-0.202818541055177</v>
       </c>
       <c r="H12" t="n">
-        <v>15.86497493231495</v>
+        <v>17.03224060698864</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2774113310202931</v>
+        <v>-0.2710174048521587</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.9454094262223687</v>
+        <v>1.381234883905498</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05604359314843363</v>
+        <v>-0.04750611276353835</v>
       </c>
       <c r="H14" t="n">
-        <v>-51.07232568658776</v>
+        <v>-28.05850832063604</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004089380227765119</v>
+        <v>-0.01870957892959942</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7607718231379</v>
+        <v>46.19255817689974</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1160907157857339</v>
+        <v>0.1287942650911535</v>
       </c>
       <c r="H16" t="n">
-        <v>-7.355841506739551</v>
+        <v>2.782003085849896</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1487563148486218</v>
+        <v>0.1409216792392777</v>
       </c>
       <c r="H17" t="n">
-        <v>6.064737167727823</v>
+        <v>0.4785637837230569</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1240214352290053</v>
+        <v>0.1232369200468747</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.570250334957354</v>
+        <v>-1.199207321494694</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1441954999318305</v>
+        <v>0.1457114665572611</v>
       </c>
       <c r="H19" t="n">
-        <v>8.243630554091713</v>
+        <v>9.381625369554191</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0411701382858842</v>
+        <v>0.03507812621554313</v>
       </c>
       <c r="H20" t="n">
-        <v>19.90331761728163</v>
+        <v>2.161029429513628</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04720029833052352</v>
+        <v>0.05928955084630756</v>
       </c>
       <c r="H21" t="n">
-        <v>-18.67606812816062</v>
+        <v>2.153155049424744</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08162493923817364</v>
+        <v>-0.05919385822591892</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.225422651433719</v>
+        <v>25.86680943360906</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.09256758143142083</v>
+        <v>-0.0575002116133107</v>
       </c>
       <c r="H23" t="n">
-        <v>-47.99817495179491</v>
+        <v>8.06796238468637</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1024948367245592</v>
+        <v>0.1117535495340776</v>
       </c>
       <c r="H24" t="n">
-        <v>-13.22417822169135</v>
+        <v>-5.385418355041416</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1508310828205763</v>
+        <v>0.1454987381037751</v>
       </c>
       <c r="H25" t="n">
-        <v>19.54554340998632</v>
+        <v>15.31923915691886</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05440967085292964</v>
+        <v>0.04753531482270276</v>
       </c>
       <c r="H26" t="n">
-        <v>9.46715034186661</v>
+        <v>-4.363408697875203</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07296129396765851</v>
+        <v>0.07536127464732534</v>
       </c>
       <c r="H27" t="n">
-        <v>-15.82351065339667</v>
+        <v>-13.05461858572612</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.07848184000852908</v>
+        <v>-0.05096432199675377</v>
       </c>
       <c r="H28" t="n">
-        <v>-23.41069122937963</v>
+        <v>19.85990383287983</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09581820175538164</v>
+        <v>-0.07231232546395179</v>
       </c>
       <c r="H29" t="n">
-        <v>-34.6286517985291</v>
+        <v>-1.601895123036894</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06976294889404065</v>
+        <v>0.06111984987813138</v>
       </c>
       <c r="H30" t="n">
-        <v>9.504002714600897</v>
+        <v>-4.062710750138296</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05752843184266525</v>
+        <v>0.05278445143313845</v>
       </c>
       <c r="H31" t="n">
-        <v>-5.037976532788671</v>
+        <v>-12.86885188516301</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09196394665685635</v>
+        <v>0.0783183582711257</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.411339462978738</v>
+        <v>-20.29800250523797</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1200931092194388</v>
+        <v>0.1113995908337573</v>
       </c>
       <c r="H33" t="n">
-        <v>45.94827680835316</v>
+        <v>35.38310753229134</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.003441297669099602</v>
+        <v>0.0107970822474767</v>
       </c>
       <c r="H34" t="n">
-        <v>-113.2077111687932</v>
+        <v>-58.56076471650052</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02100440318482725</v>
+        <v>0.01474365874763803</v>
       </c>
       <c r="H35" t="n">
-        <v>287.370197689012</v>
+        <v>231.521102023018</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.005268503932310815</v>
+        <v>0.006795065764982753</v>
       </c>
       <c r="H36" t="n">
-        <v>-1078.899036154643</v>
+        <v>1162.537413544557</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01675785528476442</v>
+        <v>0.001969108940494451</v>
       </c>
       <c r="H37" t="n">
-        <v>233.4833649210064</v>
+        <v>115.684780827067</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1164585412408932</v>
+        <v>0.108479814514687</v>
       </c>
       <c r="H38" t="n">
-        <v>8.578694972603808</v>
+        <v>1.139826803350913</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09028487993872551</v>
+        <v>0.1062663709023136</v>
       </c>
       <c r="H39" t="n">
-        <v>5.395689778294456</v>
+        <v>24.05197270115042</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.006005686031698925</v>
+        <v>0.006067813824378944</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1941350559972</v>
+        <v>104.285798728985</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0389189482726801</v>
+        <v>0.0168698007032865</v>
       </c>
       <c r="H41" t="n">
-        <v>159.5159453216366</v>
+        <v>12.48973754961959</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09170937333015954</v>
+        <v>0.1001843329772523</v>
       </c>
       <c r="H42" t="n">
-        <v>-9.140279112611211</v>
+        <v>-0.74383674139834</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1177527299362797</v>
+        <v>0.1347134502623401</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.990747156759112</v>
+        <v>12.12618692825009</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0491444321719644</v>
+        <v>0.03056699673655603</v>
       </c>
       <c r="H44" t="n">
-        <v>37.70735485454964</v>
+        <v>-14.34837924854331</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03798432438238712</v>
+        <v>0.03876509331194158</v>
       </c>
       <c r="H45" t="n">
-        <v>132.0337218356641</v>
+        <v>136.8031819633312</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0391652284918749</v>
+        <v>0.04465517712249295</v>
       </c>
       <c r="H46" t="n">
-        <v>8.076238813869098</v>
+        <v>23.22572273432271</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04941760701476629</v>
+        <v>0.06723162090787108</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.027558461143399</v>
+        <v>33.28945788473281</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03303603845852768</v>
+        <v>0.05358553639104247</v>
       </c>
       <c r="H48" t="n">
-        <v>-22.77925930142872</v>
+        <v>25.2545705817949</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07215191025783929</v>
+        <v>0.084104939401968</v>
       </c>
       <c r="H49" t="n">
-        <v>3.851410141084248</v>
+        <v>21.05592943432601</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0186388383901609</v>
+        <v>0.0006833431000162872</v>
       </c>
       <c r="H50" t="n">
-        <v>7.909194216393119</v>
+        <v>-96.04379834448186</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0210880142485254</v>
+        <v>0.007507848865195604</v>
       </c>
       <c r="H51" t="n">
-        <v>8.31190148751654</v>
+        <v>-61.43831386461189</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1204548549961306</v>
+        <v>-0.1111569153117103</v>
       </c>
       <c r="H52" t="n">
-        <v>-16.35850568530781</v>
+        <v>-7.376764204933097</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08117965241862291</v>
+        <v>-0.09219073110842281</v>
       </c>
       <c r="H53" t="n">
-        <v>12.10043293083337</v>
+        <v>0.1778757263890471</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.112619748182977</v>
+        <v>0.08826960813722166</v>
       </c>
       <c r="H54" t="n">
-        <v>54.01483833380751</v>
+        <v>20.71443637890905</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1083051751929798</v>
+        <v>0.09580944725647386</v>
       </c>
       <c r="H55" t="n">
-        <v>74.82207878464079</v>
+        <v>54.65195182722762</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03022152251758366</v>
+        <v>0.03161045802110772</v>
       </c>
       <c r="H56" t="n">
-        <v>-13.62617717182404</v>
+        <v>-9.65656680453198</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01892788659133184</v>
+        <v>0.008109288848317341</v>
       </c>
       <c r="H57" t="n">
-        <v>227.8397588382397</v>
+        <v>40.45663722433145</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03071302817225358</v>
+        <v>0.03468211169995086</v>
       </c>
       <c r="H58" t="n">
-        <v>22.80001134833809</v>
+        <v>38.66961233688706</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02856241746078764</v>
+        <v>0.01641283047586915</v>
       </c>
       <c r="H59" t="n">
-        <v>20.62531721899061</v>
+        <v>-30.68503794081029</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02877040246322089</v>
+        <v>0.01602420464276144</v>
       </c>
       <c r="H60" t="n">
-        <v>-11.31921908054758</v>
+        <v>-50.60760852581718</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04603085265435178</v>
+        <v>0.05526736010205072</v>
       </c>
       <c r="H61" t="n">
-        <v>263.6504778983349</v>
+        <v>336.6202395642575</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06024207122676271</v>
+        <v>0.05619731348457303</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.1997042005256153</v>
+        <v>-6.900470141793799</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04009162409106667</v>
+        <v>0.04321370065392041</v>
       </c>
       <c r="H63" t="n">
-        <v>23.02009014677122</v>
+        <v>32.60009966035366</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0193694719599505</v>
+        <v>0.02820368658616158</v>
       </c>
       <c r="H64" t="n">
-        <v>-52.20504010694721</v>
+        <v>-30.40625619485041</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07039927039404606</v>
+        <v>0.0620939168405759</v>
       </c>
       <c r="H65" t="n">
-        <v>25.57413115948465</v>
+        <v>10.75952369818973</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.09429735033204828</v>
+        <v>0.1045447927626845</v>
       </c>
       <c r="H66" t="n">
-        <v>0.794455514549083</v>
+        <v>11.74794865699239</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.109912340553851</v>
+        <v>0.124949561456755</v>
       </c>
       <c r="H67" t="n">
-        <v>-4.793829501053792</v>
+        <v>8.231425078169478</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.03134772754013255</v>
+        <v>-0.05220498191930791</v>
       </c>
       <c r="H68" t="n">
-        <v>10.05080859887387</v>
+        <v>-49.79701175277922</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.008265007496269555</v>
+        <v>-0.01266969045580872</v>
       </c>
       <c r="H69" t="n">
-        <v>61.05426067931656</v>
+        <v>40.29884885302413</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.09381686540574508</v>
+        <v>0.08134777602641</v>
       </c>
       <c r="H70" t="n">
-        <v>1.274455029290089</v>
+        <v>-12.18581382687166</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.09944053079157736</v>
+        <v>0.09348140181786885</v>
       </c>
       <c r="H71" t="n">
-        <v>9.025154182360758</v>
+        <v>2.491651696207769</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05984021422066699</v>
+        <v>-0.03594124441631346</v>
       </c>
       <c r="H72" t="n">
-        <v>-6.703137118063389</v>
+        <v>35.9119351243362</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.05465935651818908</v>
+        <v>-0.06584968684629698</v>
       </c>
       <c r="H73" t="n">
-        <v>25.89826819745424</v>
+        <v>10.72752873806446</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1000923556165869</v>
+        <v>0.09537061795118693</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1456262847801648</v>
+        <v>-4.578624360946026</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1201405669038937</v>
+        <v>0.120296983610797</v>
       </c>
       <c r="H75" t="n">
-        <v>23.34251049004335</v>
+        <v>23.50309595929182</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01164495108233995</v>
+        <v>0.019185788046214</v>
       </c>
       <c r="H76" t="n">
-        <v>-54.45960662696459</v>
+        <v>-24.96934262598052</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.005882099509934176</v>
+        <v>0.02744894260319163</v>
       </c>
       <c r="H77" t="n">
-        <v>-58.30971172991612</v>
+        <v>94.54861787077313</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05773797745381913</v>
+        <v>0.07777422153060559</v>
       </c>
       <c r="H78" t="n">
-        <v>-10.1731480246396</v>
+        <v>20.99858348028238</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07054468906241479</v>
+        <v>0.06132087267246576</v>
       </c>
       <c r="H79" t="n">
-        <v>-8.041837893022901</v>
+        <v>-20.06549572049551</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1659429824125236</v>
+        <v>-0.1657044309178647</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.2020308605129298</v>
+        <v>-0.0579853342597589</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1787762596983573</v>
+        <v>-0.1398010375478449</v>
       </c>
       <c r="H81" t="n">
-        <v>14.90573303652248</v>
+        <v>33.45723402570566</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1266096833437853</v>
+        <v>0.1156483132080805</v>
       </c>
       <c r="H82" t="n">
-        <v>10.38782967895368</v>
+        <v>0.830884051796439</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2018448060136552</v>
+        <v>0.1832310302351879</v>
       </c>
       <c r="H83" t="n">
-        <v>13.40729119546635</v>
+        <v>2.949068704405804</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04477825283116746</v>
+        <v>0.04242976263781335</v>
       </c>
       <c r="H84" t="n">
-        <v>87.8467660472149</v>
+        <v>77.99474503204689</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0533870805692313</v>
+        <v>0.03225304838701491</v>
       </c>
       <c r="H85" t="n">
-        <v>-13.29879756555182</v>
+        <v>-47.62069685184704</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>